--- a/stock_historical_data/1mo/BUTTERFLY.NS.xlsx
+++ b/stock_historical_data/1mo/BUTTERFLY.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B2" t="n">
-        <v>327</v>
+        <v>339.0694859188152</v>
       </c>
       <c r="C2" t="n">
-        <v>346.7999877929688</v>
+        <v>339.0694859188152</v>
       </c>
       <c r="D2" t="n">
-        <v>275.1499938964844</v>
+        <v>309.6791813869474</v>
       </c>
       <c r="E2" t="n">
-        <v>295</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289.9710083007812</v>
-      </c>
+        <v>321.4254760742188</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>104500</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
         <v>2014</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B3" t="n">
+        <v>327</v>
+      </c>
+      <c r="C3" t="n">
+        <v>346.7999877929688</v>
+      </c>
+      <c r="D3" t="n">
+        <v>275.1499938964844</v>
+      </c>
+      <c r="E3" t="n">
         <v>295</v>
       </c>
-      <c r="C3" t="n">
-        <v>355.7999877929688</v>
-      </c>
-      <c r="D3" t="n">
-        <v>285</v>
-      </c>
-      <c r="E3" t="n">
-        <v>297.9500122070312</v>
-      </c>
       <c r="F3" t="n">
-        <v>292.8707275390625</v>
+        <v>289.9710083007812</v>
       </c>
       <c r="G3" t="n">
-        <v>54550</v>
+        <v>104500</v>
       </c>
       <c r="H3" t="n">
         <v>2014</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B4" t="n">
-        <v>291.75</v>
+        <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>319.9500122070312</v>
+        <v>355.7999877929688</v>
       </c>
       <c r="D4" t="n">
-        <v>280.5</v>
+        <v>285</v>
       </c>
       <c r="E4" t="n">
-        <v>299</v>
+        <v>297.9500122070312</v>
       </c>
       <c r="F4" t="n">
-        <v>293.90283203125</v>
+        <v>292.8707275390625</v>
       </c>
       <c r="G4" t="n">
-        <v>38118</v>
+        <v>54550</v>
       </c>
       <c r="H4" t="n">
         <v>2014</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B5" t="n">
-        <v>295</v>
+        <v>291.75</v>
       </c>
       <c r="C5" t="n">
-        <v>309.9500122070312</v>
+        <v>319.9500122070312</v>
       </c>
       <c r="D5" t="n">
-        <v>266.75</v>
+        <v>280.5</v>
       </c>
       <c r="E5" t="n">
-        <v>271.6499938964844</v>
+        <v>299</v>
       </c>
       <c r="F5" t="n">
-        <v>267.0190734863281</v>
+        <v>293.90283203125</v>
       </c>
       <c r="G5" t="n">
-        <v>51226</v>
+        <v>38118</v>
       </c>
       <c r="H5" t="n">
         <v>2014</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B6" t="n">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C6" t="n">
-        <v>302</v>
+        <v>309.9500122070312</v>
       </c>
       <c r="D6" t="n">
-        <v>264.6000061035156</v>
+        <v>266.75</v>
       </c>
       <c r="E6" t="n">
-        <v>288.3999938964844</v>
+        <v>271.6499938964844</v>
       </c>
       <c r="F6" t="n">
-        <v>283.4835205078125</v>
+        <v>267.0190734863281</v>
       </c>
       <c r="G6" t="n">
-        <v>67199</v>
+        <v>51226</v>
       </c>
       <c r="H6" t="n">
         <v>2014</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B7" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C7" t="n">
-        <v>294.5</v>
+        <v>302</v>
       </c>
       <c r="D7" t="n">
-        <v>262</v>
+        <v>264.6000061035156</v>
       </c>
       <c r="E7" t="n">
-        <v>268.1499938964844</v>
+        <v>288.3999938964844</v>
       </c>
       <c r="F7" t="n">
-        <v>263.5787353515625</v>
+        <v>283.4835205078125</v>
       </c>
       <c r="G7" t="n">
-        <v>17793</v>
+        <v>67199</v>
       </c>
       <c r="H7" t="n">
         <v>2014</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C8" t="n">
-        <v>290</v>
+        <v>294.5</v>
       </c>
       <c r="D8" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
-        <v>262.5499877929688</v>
+        <v>268.1499938964844</v>
       </c>
       <c r="F8" t="n">
-        <v>258.0741577148438</v>
+        <v>263.5787353515625</v>
       </c>
       <c r="G8" t="n">
-        <v>166092</v>
+        <v>17793</v>
       </c>
       <c r="H8" t="n">
         <v>2014</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B9" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
-        <v>267.7999877929688</v>
+        <v>290</v>
       </c>
       <c r="D9" t="n">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E9" t="n">
-        <v>218.1499938964844</v>
+        <v>262.5499877929688</v>
       </c>
       <c r="F9" t="n">
-        <v>214.4310760498047</v>
+        <v>258.0741577148438</v>
       </c>
       <c r="G9" t="n">
-        <v>102305</v>
+        <v>166092</v>
       </c>
       <c r="H9" t="n">
         <v>2014</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B10" t="n">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C10" t="n">
-        <v>285</v>
+        <v>267.7999877929688</v>
       </c>
       <c r="D10" t="n">
-        <v>200.25</v>
+        <v>207</v>
       </c>
       <c r="E10" t="n">
-        <v>263.75</v>
+        <v>218.1499938964844</v>
       </c>
       <c r="F10" t="n">
-        <v>259.2537536621094</v>
+        <v>214.4310760498047</v>
       </c>
       <c r="G10" t="n">
-        <v>247755</v>
+        <v>102305</v>
       </c>
       <c r="H10" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B11" t="n">
-        <v>263.9500122070312</v>
+        <v>220</v>
       </c>
       <c r="C11" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D11" t="n">
-        <v>204.9499969482422</v>
+        <v>200.25</v>
       </c>
       <c r="E11" t="n">
-        <v>215.1499938964844</v>
+        <v>263.75</v>
       </c>
       <c r="F11" t="n">
-        <v>211.4822387695312</v>
+        <v>259.2537536621094</v>
       </c>
       <c r="G11" t="n">
-        <v>136944</v>
+        <v>247755</v>
       </c>
       <c r="H11" t="n">
         <v>2015</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B12" t="n">
-        <v>216.0500030517578</v>
+        <v>263.9500122070312</v>
       </c>
       <c r="C12" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="D12" t="n">
-        <v>170.3500061035156</v>
+        <v>204.9499969482422</v>
       </c>
       <c r="E12" t="n">
-        <v>191</v>
+        <v>215.1499938964844</v>
       </c>
       <c r="F12" t="n">
-        <v>187.7439422607422</v>
+        <v>211.4822387695312</v>
       </c>
       <c r="G12" t="n">
-        <v>120501</v>
+        <v>136944</v>
       </c>
       <c r="H12" t="n">
         <v>2015</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B13" t="n">
-        <v>190.9499969482422</v>
+        <v>216.0500030517578</v>
       </c>
       <c r="C13" t="n">
         <v>230</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3999938964844</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="E13" t="n">
-        <v>179.25</v>
+        <v>191</v>
       </c>
       <c r="F13" t="n">
-        <v>176.1942596435547</v>
+        <v>187.7439422607422</v>
       </c>
       <c r="G13" t="n">
-        <v>135167</v>
+        <v>120501</v>
       </c>
       <c r="H13" t="n">
         <v>2015</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B14" t="n">
+        <v>190.9499969482422</v>
+      </c>
+      <c r="C14" t="n">
+        <v>230</v>
+      </c>
+      <c r="D14" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="E14" t="n">
         <v>179.25</v>
       </c>
-      <c r="C14" t="n">
-        <v>189.75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>147.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>151.75</v>
-      </c>
       <c r="F14" t="n">
-        <v>149.1630554199219</v>
+        <v>176.1942596435547</v>
       </c>
       <c r="G14" t="n">
-        <v>124101</v>
+        <v>135167</v>
       </c>
       <c r="H14" t="n">
         <v>2015</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B15" t="n">
-        <v>151</v>
+        <v>179.25</v>
       </c>
       <c r="C15" t="n">
-        <v>160.5</v>
+        <v>189.75</v>
       </c>
       <c r="D15" t="n">
-        <v>131.1000061035156</v>
+        <v>147.25</v>
       </c>
       <c r="E15" t="n">
-        <v>149</v>
+        <v>151.75</v>
       </c>
       <c r="F15" t="n">
-        <v>146.4599151611328</v>
+        <v>149.1630554199219</v>
       </c>
       <c r="G15" t="n">
-        <v>109531</v>
+        <v>124101</v>
       </c>
       <c r="H15" t="n">
         <v>2015</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B16" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n">
-        <v>213</v>
+        <v>160.5</v>
       </c>
       <c r="D16" t="n">
-        <v>143</v>
+        <v>131.1000061035156</v>
       </c>
       <c r="E16" t="n">
-        <v>197.6499938964844</v>
+        <v>149</v>
       </c>
       <c r="F16" t="n">
-        <v>194.2805786132812</v>
+        <v>146.4599151611328</v>
       </c>
       <c r="G16" t="n">
-        <v>1711016</v>
+        <v>109531</v>
       </c>
       <c r="H16" t="n">
         <v>2015</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B17" t="n">
-        <v>199.5</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D17" t="n">
-        <v>136.1499938964844</v>
+        <v>143</v>
       </c>
       <c r="E17" t="n">
-        <v>156.75</v>
+        <v>197.6499938964844</v>
       </c>
       <c r="F17" t="n">
-        <v>154.0778045654297</v>
+        <v>194.2805786132812</v>
       </c>
       <c r="G17" t="n">
-        <v>822214</v>
+        <v>1711016</v>
       </c>
       <c r="H17" t="n">
         <v>2015</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B18" t="n">
-        <v>153.1000061035156</v>
+        <v>199.5</v>
       </c>
       <c r="C18" t="n">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="D18" t="n">
-        <v>141.1000061035156</v>
+        <v>136.1499938964844</v>
       </c>
       <c r="E18" t="n">
-        <v>155</v>
+        <v>156.75</v>
       </c>
       <c r="F18" t="n">
-        <v>152.3576354980469</v>
+        <v>154.0778045654297</v>
       </c>
       <c r="G18" t="n">
-        <v>215859</v>
+        <v>822214</v>
       </c>
       <c r="H18" t="n">
         <v>2015</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B19" t="n">
-        <v>154</v>
+        <v>153.1000061035156</v>
       </c>
       <c r="C19" t="n">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D19" t="n">
-        <v>149.5</v>
+        <v>141.1000061035156</v>
       </c>
       <c r="E19" t="n">
-        <v>156.6999969482422</v>
+        <v>155</v>
       </c>
       <c r="F19" t="n">
-        <v>154.0286712646484</v>
+        <v>152.3576354980469</v>
       </c>
       <c r="G19" t="n">
-        <v>177685</v>
+        <v>215859</v>
       </c>
       <c r="H19" t="n">
         <v>2015</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B20" t="n">
-        <v>155.1000061035156</v>
+        <v>154</v>
       </c>
       <c r="C20" t="n">
-        <v>264.7000122070312</v>
+        <v>182</v>
       </c>
       <c r="D20" t="n">
-        <v>138.9499969482422</v>
+        <v>149.5</v>
       </c>
       <c r="E20" t="n">
-        <v>250.5</v>
+        <v>156.6999969482422</v>
       </c>
       <c r="F20" t="n">
-        <v>246.2296142578125</v>
+        <v>154.0286712646484</v>
       </c>
       <c r="G20" t="n">
-        <v>3312302</v>
+        <v>177685</v>
       </c>
       <c r="H20" t="n">
         <v>2015</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B21" t="n">
+        <v>155.1000061035156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="E21" t="n">
         <v>250.5</v>
       </c>
-      <c r="C21" t="n">
-        <v>264.9500122070312</v>
-      </c>
-      <c r="D21" t="n">
-        <v>231.25</v>
-      </c>
-      <c r="E21" t="n">
-        <v>241.9499969482422</v>
-      </c>
       <c r="F21" t="n">
-        <v>237.8253631591797</v>
+        <v>246.2296142578125</v>
       </c>
       <c r="G21" t="n">
-        <v>1065530</v>
+        <v>3312302</v>
       </c>
       <c r="H21" t="n">
         <v>2015</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B22" t="n">
-        <v>246.8500061035156</v>
+        <v>250.5</v>
       </c>
       <c r="C22" t="n">
-        <v>307.7000122070312</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="D22" t="n">
-        <v>209.8000030517578</v>
+        <v>231.25</v>
       </c>
       <c r="E22" t="n">
-        <v>240.5</v>
+        <v>241.9499969482422</v>
       </c>
       <c r="F22" t="n">
-        <v>236.4000854492188</v>
+        <v>237.8253631591797</v>
       </c>
       <c r="G22" t="n">
-        <v>1706338</v>
+        <v>1065530</v>
       </c>
       <c r="H22" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B23" t="n">
-        <v>237</v>
+        <v>246.8500061035156</v>
       </c>
       <c r="C23" t="n">
-        <v>260</v>
+        <v>307.7000122070312</v>
       </c>
       <c r="D23" t="n">
-        <v>163</v>
+        <v>209.8000030517578</v>
       </c>
       <c r="E23" t="n">
-        <v>163.5</v>
+        <v>240.5</v>
       </c>
       <c r="F23" t="n">
-        <v>160.7127532958984</v>
+        <v>236.4000854492188</v>
       </c>
       <c r="G23" t="n">
-        <v>701042</v>
+        <v>1706338</v>
       </c>
       <c r="H23" t="n">
         <v>2016</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B24" t="n">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="C24" t="n">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>157.5</v>
+        <v>163</v>
       </c>
       <c r="E24" t="n">
-        <v>164.3999938964844</v>
+        <v>163.5</v>
       </c>
       <c r="F24" t="n">
-        <v>161.5973815917969</v>
+        <v>160.7127532958984</v>
       </c>
       <c r="G24" t="n">
-        <v>450541</v>
+        <v>701042</v>
       </c>
       <c r="H24" t="n">
         <v>2016</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B25" t="n">
-        <v>165.1999969482422</v>
+        <v>164</v>
       </c>
       <c r="C25" t="n">
-        <v>188.75</v>
+        <v>196</v>
       </c>
       <c r="D25" t="n">
-        <v>162.3500061035156</v>
+        <v>157.5</v>
       </c>
       <c r="E25" t="n">
-        <v>179.4499969482422</v>
+        <v>164.3999938964844</v>
       </c>
       <c r="F25" t="n">
-        <v>176.3908386230469</v>
+        <v>161.5973815917969</v>
       </c>
       <c r="G25" t="n">
-        <v>328348</v>
+        <v>450541</v>
       </c>
       <c r="H25" t="n">
         <v>2016</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B26" t="n">
-        <v>180.9499969482422</v>
+        <v>165.1999969482422</v>
       </c>
       <c r="C26" t="n">
-        <v>189</v>
+        <v>188.75</v>
       </c>
       <c r="D26" t="n">
         <v>162.3500061035156</v>
       </c>
       <c r="E26" t="n">
-        <v>168.6000061035156</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="F26" t="n">
-        <v>165.7258148193359</v>
+        <v>176.3908386230469</v>
       </c>
       <c r="G26" t="n">
-        <v>264297</v>
+        <v>328348</v>
       </c>
       <c r="H26" t="n">
         <v>2016</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B27" t="n">
-        <v>172.8000030517578</v>
+        <v>180.9499969482422</v>
       </c>
       <c r="C27" t="n">
-        <v>176.5</v>
+        <v>189</v>
       </c>
       <c r="D27" t="n">
-        <v>154</v>
+        <v>162.3500061035156</v>
       </c>
       <c r="E27" t="n">
-        <v>164.3000030517578</v>
+        <v>168.6000061035156</v>
       </c>
       <c r="F27" t="n">
-        <v>161.4991149902344</v>
+        <v>165.7258148193359</v>
       </c>
       <c r="G27" t="n">
-        <v>286625</v>
+        <v>264297</v>
       </c>
       <c r="H27" t="n">
         <v>2016</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B28" t="n">
-        <v>164.5</v>
+        <v>172.8000030517578</v>
       </c>
       <c r="C28" t="n">
-        <v>175.25</v>
+        <v>176.5</v>
       </c>
       <c r="D28" t="n">
-        <v>161.5</v>
+        <v>154</v>
       </c>
       <c r="E28" t="n">
-        <v>162.8000030517578</v>
+        <v>164.3000030517578</v>
       </c>
       <c r="F28" t="n">
-        <v>160.0246887207031</v>
+        <v>161.4991149902344</v>
       </c>
       <c r="G28" t="n">
-        <v>149824</v>
+        <v>286625</v>
       </c>
       <c r="H28" t="n">
         <v>2016</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B29" t="n">
-        <v>161.5500030517578</v>
+        <v>164.5</v>
       </c>
       <c r="C29" t="n">
-        <v>212.6999969482422</v>
+        <v>175.25</v>
       </c>
       <c r="D29" t="n">
-        <v>138</v>
+        <v>161.5</v>
       </c>
       <c r="E29" t="n">
-        <v>200.5</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="F29" t="n">
-        <v>198.5901336669922</v>
+        <v>160.0246887207031</v>
       </c>
       <c r="G29" t="n">
-        <v>2404261</v>
+        <v>149824</v>
       </c>
       <c r="H29" t="n">
         <v>2016</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B30" t="n">
-        <v>201.8500061035156</v>
+        <v>161.5500030517578</v>
       </c>
       <c r="C30" t="n">
-        <v>215</v>
+        <v>212.6999969482422</v>
       </c>
       <c r="D30" t="n">
-        <v>180.3500061035156</v>
+        <v>138</v>
       </c>
       <c r="E30" t="n">
-        <v>200.1499938964844</v>
+        <v>200.5</v>
       </c>
       <c r="F30" t="n">
-        <v>198.2434539794922</v>
+        <v>198.5901336669922</v>
       </c>
       <c r="G30" t="n">
-        <v>678194</v>
+        <v>2404261</v>
       </c>
       <c r="H30" t="n">
         <v>2016</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B31" t="n">
-        <v>203</v>
+        <v>201.8500061035156</v>
       </c>
       <c r="C31" t="n">
-        <v>275.1499938964844</v>
+        <v>215</v>
       </c>
       <c r="D31" t="n">
-        <v>199</v>
+        <v>180.3500061035156</v>
       </c>
       <c r="E31" t="n">
-        <v>265.9500122070312</v>
+        <v>200.1499938964844</v>
       </c>
       <c r="F31" t="n">
-        <v>263.4166870117188</v>
+        <v>198.2434539794922</v>
       </c>
       <c r="G31" t="n">
-        <v>1414719</v>
+        <v>678194</v>
       </c>
       <c r="H31" t="n">
         <v>2016</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B32" t="n">
-        <v>272.1499938964844</v>
+        <v>203</v>
       </c>
       <c r="C32" t="n">
-        <v>273.9500122070312</v>
+        <v>275.1499938964844</v>
       </c>
       <c r="D32" t="n">
-        <v>178.1999969482422</v>
+        <v>199</v>
       </c>
       <c r="E32" t="n">
-        <v>206.3000030517578</v>
+        <v>265.9500122070312</v>
       </c>
       <c r="F32" t="n">
-        <v>204.3348693847656</v>
+        <v>263.4166870117188</v>
       </c>
       <c r="G32" t="n">
-        <v>575892</v>
+        <v>1414719</v>
       </c>
       <c r="H32" t="n">
         <v>2016</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B33" t="n">
-        <v>210.4499969482422</v>
+        <v>272.1499938964844</v>
       </c>
       <c r="C33" t="n">
-        <v>210.5</v>
+        <v>273.9500122070312</v>
       </c>
       <c r="D33" t="n">
-        <v>173.1499938964844</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="E33" t="n">
-        <v>189.8000030517578</v>
+        <v>206.3000030517578</v>
       </c>
       <c r="F33" t="n">
-        <v>187.9920501708984</v>
+        <v>204.3348693847656</v>
       </c>
       <c r="G33" t="n">
-        <v>175184</v>
+        <v>575892</v>
       </c>
       <c r="H33" t="n">
         <v>2016</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2217,36 +2209,36 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B34" t="n">
-        <v>196</v>
+        <v>210.4499969482422</v>
       </c>
       <c r="C34" t="n">
-        <v>210</v>
+        <v>210.5</v>
       </c>
       <c r="D34" t="n">
-        <v>185</v>
+        <v>173.1499938964844</v>
       </c>
       <c r="E34" t="n">
-        <v>185.8000030517578</v>
+        <v>189.8000030517578</v>
       </c>
       <c r="F34" t="n">
-        <v>184.0301361083984</v>
+        <v>187.9920501708984</v>
       </c>
       <c r="G34" t="n">
-        <v>552735</v>
+        <v>175184</v>
       </c>
       <c r="H34" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2270,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B35" t="n">
-        <v>186.1499938964844</v>
+        <v>196</v>
       </c>
       <c r="C35" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D35" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E35" t="n">
-        <v>166.4499969482422</v>
+        <v>185.8000030517578</v>
       </c>
       <c r="F35" t="n">
-        <v>164.8644714355469</v>
+        <v>184.0301361083984</v>
       </c>
       <c r="G35" t="n">
-        <v>354309</v>
+        <v>552735</v>
       </c>
       <c r="H35" t="n">
         <v>2017</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2323,36 +2315,36 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B36" t="n">
-        <v>168</v>
+        <v>186.1499938964844</v>
       </c>
       <c r="C36" t="n">
-        <v>184.8500061035156</v>
+        <v>207</v>
       </c>
       <c r="D36" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" t="n">
-        <v>177.6999969482422</v>
+        <v>166.4499969482422</v>
       </c>
       <c r="F36" t="n">
-        <v>176.0073089599609</v>
+        <v>164.8644714355469</v>
       </c>
       <c r="G36" t="n">
-        <v>497796</v>
+        <v>354309</v>
       </c>
       <c r="H36" t="n">
         <v>2017</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2376,36 +2368,36 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B37" t="n">
-        <v>179.5</v>
+        <v>168</v>
       </c>
       <c r="C37" t="n">
-        <v>210</v>
+        <v>184.8500061035156</v>
       </c>
       <c r="D37" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E37" t="n">
-        <v>184.6499938964844</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="F37" t="n">
-        <v>182.8910827636719</v>
+        <v>176.0073089599609</v>
       </c>
       <c r="G37" t="n">
-        <v>507592</v>
+        <v>497796</v>
       </c>
       <c r="H37" t="n">
         <v>2017</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B38" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>210</v>
+      </c>
+      <c r="D38" t="n">
+        <v>178</v>
+      </c>
+      <c r="E38" t="n">
         <v>184.6499938964844</v>
       </c>
-      <c r="C38" t="n">
-        <v>204.8999938964844</v>
-      </c>
-      <c r="D38" t="n">
-        <v>162.1000061035156</v>
-      </c>
-      <c r="E38" t="n">
-        <v>166.9499969482422</v>
-      </c>
       <c r="F38" t="n">
-        <v>165.3597106933594</v>
+        <v>182.8910827636719</v>
       </c>
       <c r="G38" t="n">
-        <v>367150</v>
+        <v>507592</v>
       </c>
       <c r="H38" t="n">
         <v>2017</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B39" t="n">
-        <v>164.1999969482422</v>
+        <v>184.6499938964844</v>
       </c>
       <c r="C39" t="n">
-        <v>203.1999969482422</v>
+        <v>204.8999938964844</v>
       </c>
       <c r="D39" t="n">
-        <v>160.1000061035156</v>
+        <v>162.1000061035156</v>
       </c>
       <c r="E39" t="n">
-        <v>184.4499969482422</v>
+        <v>166.9499969482422</v>
       </c>
       <c r="F39" t="n">
-        <v>182.6929931640625</v>
+        <v>165.3597106933594</v>
       </c>
       <c r="G39" t="n">
-        <v>532621</v>
+        <v>367150</v>
       </c>
       <c r="H39" t="n">
         <v>2017</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B40" t="n">
-        <v>184.1499938964844</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="C40" t="n">
-        <v>199.5</v>
+        <v>203.1999969482422</v>
       </c>
       <c r="D40" t="n">
-        <v>180.1000061035156</v>
+        <v>160.1000061035156</v>
       </c>
       <c r="E40" t="n">
-        <v>186.5</v>
+        <v>184.4499969482422</v>
       </c>
       <c r="F40" t="n">
-        <v>184.7234802246094</v>
+        <v>182.6929931640625</v>
       </c>
       <c r="G40" t="n">
-        <v>215765</v>
+        <v>532621</v>
       </c>
       <c r="H40" t="n">
         <v>2017</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B41" t="n">
-        <v>185.0500030517578</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="C41" t="n">
-        <v>187.4499969482422</v>
+        <v>199.5</v>
       </c>
       <c r="D41" t="n">
-        <v>155</v>
+        <v>180.1000061035156</v>
       </c>
       <c r="E41" t="n">
-        <v>165.1499938964844</v>
+        <v>186.5</v>
       </c>
       <c r="F41" t="n">
-        <v>163.5768280029297</v>
+        <v>184.7234802246094</v>
       </c>
       <c r="G41" t="n">
-        <v>117185</v>
+        <v>215765</v>
       </c>
       <c r="H41" t="n">
         <v>2017</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,45 +2624,45 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B42" t="n">
-        <v>164</v>
+        <v>185.0500030517578</v>
       </c>
       <c r="C42" t="n">
-        <v>221.6499938964844</v>
+        <v>187.4499969482422</v>
       </c>
       <c r="D42" t="n">
-        <v>163.25</v>
+        <v>155</v>
       </c>
       <c r="E42" t="n">
-        <v>185.1999969482422</v>
+        <v>165.1499938964844</v>
       </c>
       <c r="F42" t="n">
-        <v>183.4358520507812</v>
+        <v>163.5768280029297</v>
       </c>
       <c r="G42" t="n">
-        <v>915884</v>
+        <v>117185</v>
       </c>
       <c r="H42" t="n">
         <v>2017</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,45 +2677,45 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B43" t="n">
+        <v>164</v>
+      </c>
+      <c r="C43" t="n">
+        <v>221.6499938964844</v>
+      </c>
+      <c r="D43" t="n">
+        <v>163.25</v>
+      </c>
+      <c r="E43" t="n">
         <v>185.1999969482422</v>
       </c>
-      <c r="C43" t="n">
-        <v>324.8500061035156</v>
-      </c>
-      <c r="D43" t="n">
-        <v>181.6499938964844</v>
-      </c>
-      <c r="E43" t="n">
-        <v>315.6000061035156</v>
-      </c>
       <c r="F43" t="n">
-        <v>312.59375</v>
+        <v>183.4358520507812</v>
       </c>
       <c r="G43" t="n">
-        <v>2932463</v>
+        <v>915884</v>
       </c>
       <c r="H43" t="n">
         <v>2017</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B44" t="n">
-        <v>316</v>
+        <v>185.1999969482422</v>
       </c>
       <c r="C44" t="n">
-        <v>510</v>
+        <v>324.8500061035156</v>
       </c>
       <c r="D44" t="n">
-        <v>316</v>
+        <v>181.6499938964844</v>
       </c>
       <c r="E44" t="n">
-        <v>478</v>
+        <v>315.6000061035156</v>
       </c>
       <c r="F44" t="n">
-        <v>473.4467468261719</v>
+        <v>312.59375</v>
       </c>
       <c r="G44" t="n">
-        <v>3750875</v>
+        <v>2932463</v>
       </c>
       <c r="H44" t="n">
         <v>2017</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B45" t="n">
-        <v>485</v>
+        <v>316</v>
       </c>
       <c r="C45" t="n">
-        <v>598.7999877929688</v>
+        <v>510</v>
       </c>
       <c r="D45" t="n">
-        <v>457.8500061035156</v>
+        <v>316</v>
       </c>
       <c r="E45" t="n">
-        <v>537.5999755859375</v>
+        <v>478</v>
       </c>
       <c r="F45" t="n">
-        <v>532.47900390625</v>
+        <v>473.4467468261719</v>
       </c>
       <c r="G45" t="n">
-        <v>1129286</v>
+        <v>3750875</v>
       </c>
       <c r="H45" t="n">
         <v>2017</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2853,36 +2845,36 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B46" t="n">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="C46" t="n">
-        <v>648.6500244140625</v>
+        <v>598.7999877929688</v>
       </c>
       <c r="D46" t="n">
-        <v>515</v>
+        <v>457.8500061035156</v>
       </c>
       <c r="E46" t="n">
-        <v>578.7999877929688</v>
+        <v>537.5999755859375</v>
       </c>
       <c r="F46" t="n">
-        <v>573.2865600585938</v>
+        <v>532.47900390625</v>
       </c>
       <c r="G46" t="n">
-        <v>1567289</v>
+        <v>1129286</v>
       </c>
       <c r="H46" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,45 +2889,45 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B47" t="n">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="C47" t="n">
-        <v>607.0499877929688</v>
+        <v>648.6500244140625</v>
       </c>
       <c r="D47" t="n">
-        <v>468.6499938964844</v>
+        <v>515</v>
       </c>
       <c r="E47" t="n">
-        <v>514.2000122070312</v>
+        <v>578.7999877929688</v>
       </c>
       <c r="F47" t="n">
-        <v>509.3019409179688</v>
+        <v>573.2865600585938</v>
       </c>
       <c r="G47" t="n">
-        <v>620280</v>
+        <v>1567289</v>
       </c>
       <c r="H47" t="n">
         <v>2018</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B48" t="n">
-        <v>506.5499877929688</v>
+        <v>594</v>
       </c>
       <c r="C48" t="n">
-        <v>530</v>
+        <v>607.0499877929688</v>
       </c>
       <c r="D48" t="n">
-        <v>466.1499938964844</v>
+        <v>468.6499938964844</v>
       </c>
       <c r="E48" t="n">
-        <v>518.4500122070312</v>
+        <v>514.2000122070312</v>
       </c>
       <c r="F48" t="n">
-        <v>513.511474609375</v>
+        <v>509.3019409179688</v>
       </c>
       <c r="G48" t="n">
-        <v>462940</v>
+        <v>620280</v>
       </c>
       <c r="H48" t="n">
         <v>2018</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B49" t="n">
-        <v>524</v>
+        <v>506.5499877929688</v>
       </c>
       <c r="C49" t="n">
-        <v>594.9500122070312</v>
+        <v>530</v>
       </c>
       <c r="D49" t="n">
-        <v>490</v>
+        <v>466.1499938964844</v>
       </c>
       <c r="E49" t="n">
-        <v>547.5499877929688</v>
+        <v>518.4500122070312</v>
       </c>
       <c r="F49" t="n">
-        <v>542.334228515625</v>
+        <v>513.511474609375</v>
       </c>
       <c r="G49" t="n">
-        <v>543286</v>
+        <v>462940</v>
       </c>
       <c r="H49" t="n">
         <v>2018</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B50" t="n">
+        <v>524</v>
+      </c>
+      <c r="C50" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>490</v>
+      </c>
+      <c r="E50" t="n">
         <v>547.5499877929688</v>
       </c>
-      <c r="C50" t="n">
-        <v>548</v>
-      </c>
-      <c r="D50" t="n">
-        <v>402.3999938964844</v>
-      </c>
-      <c r="E50" t="n">
-        <v>415.3999938964844</v>
-      </c>
       <c r="F50" t="n">
-        <v>411.4430847167969</v>
+        <v>542.334228515625</v>
       </c>
       <c r="G50" t="n">
-        <v>371869</v>
+        <v>543286</v>
       </c>
       <c r="H50" t="n">
         <v>2018</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3118,36 +3110,36 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B51" t="n">
-        <v>409</v>
+        <v>547.5499877929688</v>
       </c>
       <c r="C51" t="n">
-        <v>434</v>
+        <v>548</v>
       </c>
       <c r="D51" t="n">
-        <v>316.7000122070312</v>
+        <v>402.3999938964844</v>
       </c>
       <c r="E51" t="n">
-        <v>337.8999938964844</v>
+        <v>415.3999938964844</v>
       </c>
       <c r="F51" t="n">
-        <v>334.6813049316406</v>
+        <v>411.4430847167969</v>
       </c>
       <c r="G51" t="n">
-        <v>388604</v>
+        <v>371869</v>
       </c>
       <c r="H51" t="n">
         <v>2018</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,36 +3163,36 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B52" t="n">
-        <v>344.7999877929688</v>
+        <v>409</v>
       </c>
       <c r="C52" t="n">
-        <v>344.7999877929688</v>
+        <v>434</v>
       </c>
       <c r="D52" t="n">
-        <v>285.5</v>
+        <v>316.7000122070312</v>
       </c>
       <c r="E52" t="n">
-        <v>327.9500122070312</v>
+        <v>337.8999938964844</v>
       </c>
       <c r="F52" t="n">
-        <v>324.8260803222656</v>
+        <v>334.6813049316406</v>
       </c>
       <c r="G52" t="n">
-        <v>194787</v>
+        <v>388604</v>
       </c>
       <c r="H52" t="n">
         <v>2018</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B53" t="n">
-        <v>330</v>
+        <v>344.7999877929688</v>
       </c>
       <c r="C53" t="n">
-        <v>394.3999938964844</v>
+        <v>344.7999877929688</v>
       </c>
       <c r="D53" t="n">
-        <v>282.8999938964844</v>
+        <v>285.5</v>
       </c>
       <c r="E53" t="n">
-        <v>301.4500122070312</v>
+        <v>327.9500122070312</v>
       </c>
       <c r="F53" t="n">
-        <v>298.5785217285156</v>
+        <v>324.8260803222656</v>
       </c>
       <c r="G53" t="n">
-        <v>287465</v>
+        <v>194787</v>
       </c>
       <c r="H53" t="n">
         <v>2018</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B54" t="n">
-        <v>296.7999877929688</v>
+        <v>330</v>
       </c>
       <c r="C54" t="n">
-        <v>307.9500122070312</v>
+        <v>394.3999938964844</v>
       </c>
       <c r="D54" t="n">
-        <v>248</v>
+        <v>282.8999938964844</v>
       </c>
       <c r="E54" t="n">
-        <v>248.3500061035156</v>
+        <v>301.4500122070312</v>
       </c>
       <c r="F54" t="n">
-        <v>245.9843292236328</v>
+        <v>298.5785217285156</v>
       </c>
       <c r="G54" t="n">
-        <v>150551</v>
+        <v>287465</v>
       </c>
       <c r="H54" t="n">
         <v>2018</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B55" t="n">
-        <v>249</v>
+        <v>296.7999877929688</v>
       </c>
       <c r="C55" t="n">
-        <v>282.7999877929688</v>
+        <v>307.9500122070312</v>
       </c>
       <c r="D55" t="n">
-        <v>199.0500030517578</v>
+        <v>248</v>
       </c>
       <c r="E55" t="n">
-        <v>273.3999938964844</v>
+        <v>248.3500061035156</v>
       </c>
       <c r="F55" t="n">
-        <v>270.7956848144531</v>
+        <v>245.9843292236328</v>
       </c>
       <c r="G55" t="n">
-        <v>256767</v>
+        <v>150551</v>
       </c>
       <c r="H55" t="n">
         <v>2018</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B56" t="n">
-        <v>277.75</v>
+        <v>249</v>
       </c>
       <c r="C56" t="n">
-        <v>279.8999938964844</v>
+        <v>282.7999877929688</v>
       </c>
       <c r="D56" t="n">
-        <v>215.6000061035156</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="E56" t="n">
-        <v>222.8000030517578</v>
+        <v>273.3999938964844</v>
       </c>
       <c r="F56" t="n">
-        <v>220.6776885986328</v>
+        <v>270.7956848144531</v>
       </c>
       <c r="G56" t="n">
-        <v>152235</v>
+        <v>256767</v>
       </c>
       <c r="H56" t="n">
         <v>2018</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B57" t="n">
-        <v>225.9499969482422</v>
+        <v>277.75</v>
       </c>
       <c r="C57" t="n">
-        <v>299.7999877929688</v>
+        <v>279.8999938964844</v>
       </c>
       <c r="D57" t="n">
-        <v>215</v>
+        <v>215.6000061035156</v>
       </c>
       <c r="E57" t="n">
-        <v>299.7999877929688</v>
+        <v>222.8000030517578</v>
       </c>
       <c r="F57" t="n">
-        <v>296.9442138671875</v>
+        <v>220.6776885986328</v>
       </c>
       <c r="G57" t="n">
-        <v>390306</v>
+        <v>152235</v>
       </c>
       <c r="H57" t="n">
         <v>2018</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B58" t="n">
-        <v>311</v>
+        <v>225.9499969482422</v>
       </c>
       <c r="C58" t="n">
-        <v>327</v>
+        <v>299.7999877929688</v>
       </c>
       <c r="D58" t="n">
-        <v>229.3000030517578</v>
+        <v>215</v>
       </c>
       <c r="E58" t="n">
-        <v>233.8500061035156</v>
+        <v>299.7999877929688</v>
       </c>
       <c r="F58" t="n">
-        <v>231.6224517822266</v>
+        <v>296.9442138671875</v>
       </c>
       <c r="G58" t="n">
-        <v>1473270</v>
+        <v>390306</v>
       </c>
       <c r="H58" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B59" t="n">
-        <v>235.75</v>
+        <v>311</v>
       </c>
       <c r="C59" t="n">
-        <v>243.75</v>
+        <v>327</v>
       </c>
       <c r="D59" t="n">
-        <v>170.6000061035156</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="E59" t="n">
-        <v>174.1499938964844</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="F59" t="n">
-        <v>172.4911041259766</v>
+        <v>231.6224517822266</v>
       </c>
       <c r="G59" t="n">
-        <v>642975</v>
+        <v>1473270</v>
       </c>
       <c r="H59" t="n">
         <v>2019</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,45 +3578,45 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B60" t="n">
-        <v>177.8000030517578</v>
+        <v>235.75</v>
       </c>
       <c r="C60" t="n">
-        <v>225.25</v>
+        <v>243.75</v>
       </c>
       <c r="D60" t="n">
-        <v>175.5</v>
+        <v>170.6000061035156</v>
       </c>
       <c r="E60" t="n">
-        <v>194.9499969482422</v>
+        <v>174.1499938964844</v>
       </c>
       <c r="F60" t="n">
-        <v>193.0929718017578</v>
+        <v>172.4911041259766</v>
       </c>
       <c r="G60" t="n">
-        <v>2444212</v>
+        <v>642975</v>
       </c>
       <c r="H60" t="n">
         <v>2019</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3648,36 +3640,36 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B61" t="n">
-        <v>197.8999938964844</v>
+        <v>177.8000030517578</v>
       </c>
       <c r="C61" t="n">
-        <v>205.8999938964844</v>
+        <v>225.25</v>
       </c>
       <c r="D61" t="n">
-        <v>175.3999938964844</v>
+        <v>175.5</v>
       </c>
       <c r="E61" t="n">
-        <v>176.3000030517578</v>
+        <v>194.9499969482422</v>
       </c>
       <c r="F61" t="n">
-        <v>174.6206512451172</v>
+        <v>193.0929718017578</v>
       </c>
       <c r="G61" t="n">
-        <v>974943</v>
+        <v>2444212</v>
       </c>
       <c r="H61" t="n">
         <v>2019</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B62" t="n">
+        <v>197.8999938964844</v>
+      </c>
+      <c r="C62" t="n">
+        <v>205.8999938964844</v>
+      </c>
+      <c r="D62" t="n">
+        <v>175.3999938964844</v>
+      </c>
+      <c r="E62" t="n">
         <v>176.3000030517578</v>
       </c>
-      <c r="C62" t="n">
-        <v>197.8999938964844</v>
-      </c>
-      <c r="D62" t="n">
-        <v>153.6000061035156</v>
-      </c>
-      <c r="E62" t="n">
-        <v>185.75</v>
-      </c>
       <c r="F62" t="n">
-        <v>183.9806213378906</v>
+        <v>174.6206512451172</v>
       </c>
       <c r="G62" t="n">
-        <v>776388</v>
+        <v>974943</v>
       </c>
       <c r="H62" t="n">
         <v>2019</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3754,36 +3746,36 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B63" t="n">
-        <v>187.9499969482422</v>
+        <v>176.3000030517578</v>
       </c>
       <c r="C63" t="n">
-        <v>188.5</v>
+        <v>197.8999938964844</v>
       </c>
       <c r="D63" t="n">
-        <v>151.25</v>
+        <v>153.6000061035156</v>
       </c>
       <c r="E63" t="n">
-        <v>173.3999938964844</v>
+        <v>185.75</v>
       </c>
       <c r="F63" t="n">
-        <v>171.7482604980469</v>
+        <v>183.9806213378906</v>
       </c>
       <c r="G63" t="n">
-        <v>326043</v>
+        <v>776388</v>
       </c>
       <c r="H63" t="n">
         <v>2019</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3807,36 +3799,36 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B64" t="n">
-        <v>175.8500061035156</v>
+        <v>187.9499969482422</v>
       </c>
       <c r="C64" t="n">
-        <v>180.8000030517578</v>
+        <v>188.5</v>
       </c>
       <c r="D64" t="n">
-        <v>145.1000061035156</v>
+        <v>151.25</v>
       </c>
       <c r="E64" t="n">
-        <v>153.5500030517578</v>
+        <v>173.3999938964844</v>
       </c>
       <c r="F64" t="n">
-        <v>152.0873565673828</v>
+        <v>171.7482604980469</v>
       </c>
       <c r="G64" t="n">
-        <v>351581</v>
+        <v>326043</v>
       </c>
       <c r="H64" t="n">
         <v>2019</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B65" t="n">
-        <v>153.5</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="C65" t="n">
-        <v>163.8000030517578</v>
+        <v>180.8000030517578</v>
       </c>
       <c r="D65" t="n">
-        <v>139.5</v>
+        <v>145.1000061035156</v>
       </c>
       <c r="E65" t="n">
-        <v>147.8500061035156</v>
+        <v>153.5500030517578</v>
       </c>
       <c r="F65" t="n">
-        <v>146.441650390625</v>
+        <v>152.0873565673828</v>
       </c>
       <c r="G65" t="n">
-        <v>300682</v>
+        <v>351581</v>
       </c>
       <c r="H65" t="n">
         <v>2019</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B66" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>163.8000030517578</v>
+      </c>
+      <c r="D66" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="E66" t="n">
         <v>147.8500061035156</v>
       </c>
-      <c r="C66" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>139</v>
-      </c>
-      <c r="E66" t="n">
-        <v>150.8500061035156</v>
-      </c>
       <c r="F66" t="n">
-        <v>149.4130706787109</v>
+        <v>146.441650390625</v>
       </c>
       <c r="G66" t="n">
-        <v>885556</v>
+        <v>300682</v>
       </c>
       <c r="H66" t="n">
         <v>2019</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B67" t="n">
-        <v>151.0500030517578</v>
+        <v>147.8500061035156</v>
       </c>
       <c r="C67" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="D67" t="n">
-        <v>142.1000061035156</v>
+        <v>139</v>
       </c>
       <c r="E67" t="n">
-        <v>168.6999969482422</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F67" t="n">
-        <v>167.0930328369141</v>
+        <v>149.4130706787109</v>
       </c>
       <c r="G67" t="n">
-        <v>826103</v>
+        <v>885556</v>
       </c>
       <c r="H67" t="n">
         <v>2019</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B68" t="n">
-        <v>169.0500030517578</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="C68" t="n">
-        <v>222</v>
+        <v>176.5</v>
       </c>
       <c r="D68" t="n">
-        <v>169</v>
+        <v>142.1000061035156</v>
       </c>
       <c r="E68" t="n">
-        <v>204.1499938964844</v>
+        <v>168.6999969482422</v>
       </c>
       <c r="F68" t="n">
-        <v>202.2053375244141</v>
+        <v>167.0930328369141</v>
       </c>
       <c r="G68" t="n">
-        <v>1837983</v>
+        <v>826103</v>
       </c>
       <c r="H68" t="n">
         <v>2019</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B69" t="n">
-        <v>205.8999938964844</v>
+        <v>169.0500030517578</v>
       </c>
       <c r="C69" t="n">
-        <v>215.5</v>
+        <v>222</v>
       </c>
       <c r="D69" t="n">
-        <v>189.5500030517578</v>
+        <v>169</v>
       </c>
       <c r="E69" t="n">
-        <v>198.6499938964844</v>
+        <v>204.1499938964844</v>
       </c>
       <c r="F69" t="n">
-        <v>196.7577362060547</v>
+        <v>202.2053375244141</v>
       </c>
       <c r="G69" t="n">
-        <v>742319</v>
+        <v>1837983</v>
       </c>
       <c r="H69" t="n">
         <v>2019</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B70" t="n">
-        <v>199.8999938964844</v>
+        <v>205.8999938964844</v>
       </c>
       <c r="C70" t="n">
-        <v>284.8999938964844</v>
+        <v>215.5</v>
       </c>
       <c r="D70" t="n">
-        <v>197.1000061035156</v>
+        <v>189.5500030517578</v>
       </c>
       <c r="E70" t="n">
-        <v>228.6000061035156</v>
+        <v>198.6499938964844</v>
       </c>
       <c r="F70" t="n">
-        <v>226.4224548339844</v>
+        <v>196.7577362060547</v>
       </c>
       <c r="G70" t="n">
-        <v>8823645</v>
+        <v>742319</v>
       </c>
       <c r="H70" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,45 +4161,45 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B71" t="n">
-        <v>227.8999938964844</v>
+        <v>199.8999938964844</v>
       </c>
       <c r="C71" t="n">
-        <v>227.8999938964844</v>
+        <v>284.8999938964844</v>
       </c>
       <c r="D71" t="n">
-        <v>177.3500061035156</v>
+        <v>197.1000061035156</v>
       </c>
       <c r="E71" t="n">
-        <v>181.9499969482422</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="F71" t="n">
-        <v>180.216796875</v>
+        <v>226.4224548339844</v>
       </c>
       <c r="G71" t="n">
-        <v>1499434</v>
+        <v>8823645</v>
       </c>
       <c r="H71" t="n">
         <v>2020</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,45 +4214,45 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B72" t="n">
-        <v>183.5</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="C72" t="n">
-        <v>189.5500030517578</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="D72" t="n">
-        <v>83</v>
+        <v>177.3500061035156</v>
       </c>
       <c r="E72" t="n">
-        <v>95.75</v>
+        <v>181.9499969482422</v>
       </c>
       <c r="F72" t="n">
-        <v>94.83792114257812</v>
+        <v>180.216796875</v>
       </c>
       <c r="G72" t="n">
-        <v>910761</v>
+        <v>1499434</v>
       </c>
       <c r="H72" t="n">
         <v>2020</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B73" t="n">
-        <v>98</v>
+        <v>183.5</v>
       </c>
       <c r="C73" t="n">
-        <v>123.6999969482422</v>
+        <v>189.5500030517578</v>
       </c>
       <c r="D73" t="n">
-        <v>90.34999847412109</v>
+        <v>83</v>
       </c>
       <c r="E73" t="n">
-        <v>108.5</v>
+        <v>95.75</v>
       </c>
       <c r="F73" t="n">
-        <v>107.4664688110352</v>
+        <v>94.83792114257812</v>
       </c>
       <c r="G73" t="n">
-        <v>2999958</v>
+        <v>910761</v>
       </c>
       <c r="H73" t="n">
         <v>2020</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B74" t="n">
+        <v>98</v>
+      </c>
+      <c r="C74" t="n">
+        <v>123.6999969482422</v>
+      </c>
+      <c r="D74" t="n">
+        <v>90.34999847412109</v>
+      </c>
+      <c r="E74" t="n">
         <v>108.5</v>
       </c>
-      <c r="C74" t="n">
-        <v>119</v>
-      </c>
-      <c r="D74" t="n">
-        <v>96.44999694824219</v>
-      </c>
-      <c r="E74" t="n">
-        <v>109.5500030517578</v>
-      </c>
       <c r="F74" t="n">
-        <v>108.5064697265625</v>
+        <v>107.4664688110352</v>
       </c>
       <c r="G74" t="n">
-        <v>1720803</v>
+        <v>2999958</v>
       </c>
       <c r="H74" t="n">
         <v>2020</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4390,36 +4382,36 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B75" t="n">
-        <v>113.8000030517578</v>
+        <v>108.5</v>
       </c>
       <c r="C75" t="n">
-        <v>142.5</v>
+        <v>119</v>
       </c>
       <c r="D75" t="n">
-        <v>110.4499969482422</v>
+        <v>96.44999694824219</v>
       </c>
       <c r="E75" t="n">
-        <v>133.3500061035156</v>
+        <v>109.5500030517578</v>
       </c>
       <c r="F75" t="n">
-        <v>132.0797576904297</v>
+        <v>108.5064697265625</v>
       </c>
       <c r="G75" t="n">
-        <v>5911867</v>
+        <v>1720803</v>
       </c>
       <c r="H75" t="n">
         <v>2020</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4443,36 +4435,36 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B76" t="n">
-        <v>134.3000030517578</v>
+        <v>113.8000030517578</v>
       </c>
       <c r="C76" t="n">
-        <v>141.75</v>
+        <v>142.5</v>
       </c>
       <c r="D76" t="n">
-        <v>118.3000030517578</v>
+        <v>110.4499969482422</v>
       </c>
       <c r="E76" t="n">
-        <v>118.8499984741211</v>
+        <v>133.3500061035156</v>
       </c>
       <c r="F76" t="n">
-        <v>117.7178802490234</v>
+        <v>132.0797576904297</v>
       </c>
       <c r="G76" t="n">
-        <v>2152020</v>
+        <v>5911867</v>
       </c>
       <c r="H76" t="n">
         <v>2020</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4496,36 +4488,36 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B77" t="n">
-        <v>118</v>
+        <v>134.3000030517578</v>
       </c>
       <c r="C77" t="n">
-        <v>225</v>
+        <v>141.75</v>
       </c>
       <c r="D77" t="n">
-        <v>118</v>
+        <v>118.3000030517578</v>
       </c>
       <c r="E77" t="n">
-        <v>192</v>
+        <v>118.8499984741211</v>
       </c>
       <c r="F77" t="n">
-        <v>190.1710815429688</v>
+        <v>117.7178802490234</v>
       </c>
       <c r="G77" t="n">
-        <v>6120169</v>
+        <v>2152020</v>
       </c>
       <c r="H77" t="n">
         <v>2020</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4549,36 +4541,36 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B78" t="n">
-        <v>186.3999938964844</v>
+        <v>118</v>
       </c>
       <c r="C78" t="n">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="D78" t="n">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E78" t="n">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="F78" t="n">
-        <v>281.2947387695312</v>
+        <v>190.1710815429688</v>
       </c>
       <c r="G78" t="n">
-        <v>846471</v>
+        <v>6120169</v>
       </c>
       <c r="H78" t="n">
         <v>2020</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B79" t="n">
-        <v>292.1000061035156</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="C79" t="n">
-        <v>330.7999877929688</v>
+        <v>284</v>
       </c>
       <c r="D79" t="n">
-        <v>270.2000122070312</v>
+        <v>186</v>
       </c>
       <c r="E79" t="n">
-        <v>321.3999938964844</v>
+        <v>284</v>
       </c>
       <c r="F79" t="n">
-        <v>318.3384704589844</v>
+        <v>281.2947387695312</v>
       </c>
       <c r="G79" t="n">
-        <v>536993</v>
+        <v>846471</v>
       </c>
       <c r="H79" t="n">
         <v>2020</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B80" t="n">
-        <v>306.3999938964844</v>
+        <v>292.1000061035156</v>
       </c>
       <c r="C80" t="n">
-        <v>434.5499877929688</v>
+        <v>330.7999877929688</v>
       </c>
       <c r="D80" t="n">
-        <v>306.3500061035156</v>
+        <v>270.2000122070312</v>
       </c>
       <c r="E80" t="n">
-        <v>415.9500122070312</v>
+        <v>321.3999938964844</v>
       </c>
       <c r="F80" t="n">
-        <v>411.9878540039062</v>
+        <v>318.3384704589844</v>
       </c>
       <c r="G80" t="n">
-        <v>798963</v>
+        <v>536993</v>
       </c>
       <c r="H80" t="n">
         <v>2020</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B81" t="n">
-        <v>420</v>
+        <v>306.3999938964844</v>
       </c>
       <c r="C81" t="n">
-        <v>497.7000122070312</v>
+        <v>434.5499877929688</v>
       </c>
       <c r="D81" t="n">
-        <v>393.1000061035156</v>
+        <v>306.3500061035156</v>
       </c>
       <c r="E81" t="n">
-        <v>466.0499877929688</v>
+        <v>415.9500122070312</v>
       </c>
       <c r="F81" t="n">
-        <v>463.4295959472656</v>
+        <v>411.9878540039062</v>
       </c>
       <c r="G81" t="n">
-        <v>946294</v>
+        <v>798963</v>
       </c>
       <c r="H81" t="n">
         <v>2020</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B82" t="n">
-        <v>460.5</v>
+        <v>420</v>
       </c>
       <c r="C82" t="n">
-        <v>544.7999877929688</v>
+        <v>497.7000122070312</v>
       </c>
       <c r="D82" t="n">
-        <v>460</v>
+        <v>393.1000061035156</v>
       </c>
       <c r="E82" t="n">
-        <v>512.7000122070312</v>
+        <v>466.0499877929688</v>
       </c>
       <c r="F82" t="n">
-        <v>509.8173522949219</v>
+        <v>463.4295959472656</v>
       </c>
       <c r="G82" t="n">
-        <v>952245</v>
+        <v>946294</v>
       </c>
       <c r="H82" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B83" t="n">
-        <v>521</v>
+        <v>460.5</v>
       </c>
       <c r="C83" t="n">
-        <v>668.8499755859375</v>
+        <v>544.7999877929688</v>
       </c>
       <c r="D83" t="n">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="E83" t="n">
-        <v>569.5499877929688</v>
+        <v>512.7000122070312</v>
       </c>
       <c r="F83" t="n">
-        <v>566.3477172851562</v>
+        <v>509.8173522949219</v>
       </c>
       <c r="G83" t="n">
-        <v>1939887</v>
+        <v>952245</v>
       </c>
       <c r="H83" t="n">
         <v>2021</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4872,31 +4864,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B84" t="n">
+        <v>521</v>
+      </c>
+      <c r="C84" t="n">
+        <v>668.8499755859375</v>
+      </c>
+      <c r="D84" t="n">
+        <v>506</v>
+      </c>
+      <c r="E84" t="n">
         <v>569.5499877929688</v>
       </c>
-      <c r="C84" t="n">
-        <v>600</v>
-      </c>
-      <c r="D84" t="n">
-        <v>518</v>
-      </c>
-      <c r="E84" t="n">
-        <v>555.5499877929688</v>
-      </c>
       <c r="F84" t="n">
-        <v>552.4263916015625</v>
+        <v>566.3477172851562</v>
       </c>
       <c r="G84" t="n">
-        <v>1882227</v>
+        <v>1939887</v>
       </c>
       <c r="H84" t="n">
         <v>2021</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4925,31 +4917,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B85" t="n">
-        <v>560</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="C85" t="n">
-        <v>712.25</v>
+        <v>600</v>
       </c>
       <c r="D85" t="n">
-        <v>476.0499877929688</v>
+        <v>518</v>
       </c>
       <c r="E85" t="n">
-        <v>656.9000244140625</v>
+        <v>555.5499877929688</v>
       </c>
       <c r="F85" t="n">
-        <v>654.9611206054688</v>
+        <v>552.4263916015625</v>
       </c>
       <c r="G85" t="n">
-        <v>2689699</v>
+        <v>1882227</v>
       </c>
       <c r="H85" t="n">
         <v>2021</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B86" t="n">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="C86" t="n">
-        <v>925</v>
+        <v>712.25</v>
       </c>
       <c r="D86" t="n">
-        <v>610.25</v>
+        <v>476.0499877929688</v>
       </c>
       <c r="E86" t="n">
-        <v>783.7999877929688</v>
+        <v>656.9000244140625</v>
       </c>
       <c r="F86" t="n">
-        <v>781.4865112304688</v>
+        <v>654.9611206054688</v>
       </c>
       <c r="G86" t="n">
-        <v>4797499</v>
+        <v>2689699</v>
       </c>
       <c r="H86" t="n">
         <v>2021</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5031,31 +5023,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B87" t="n">
-        <v>785</v>
+        <v>655</v>
       </c>
       <c r="C87" t="n">
-        <v>840</v>
+        <v>925</v>
       </c>
       <c r="D87" t="n">
-        <v>654.5</v>
+        <v>610.25</v>
       </c>
       <c r="E87" t="n">
-        <v>706.6500244140625</v>
+        <v>783.7999877929688</v>
       </c>
       <c r="F87" t="n">
-        <v>704.5642700195312</v>
+        <v>781.4865112304688</v>
       </c>
       <c r="G87" t="n">
-        <v>860921</v>
+        <v>4797499</v>
       </c>
       <c r="H87" t="n">
         <v>2021</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5084,31 +5076,31 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B88" t="n">
+        <v>785</v>
+      </c>
+      <c r="C88" t="n">
+        <v>840</v>
+      </c>
+      <c r="D88" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="E88" t="n">
         <v>706.6500244140625</v>
       </c>
-      <c r="C88" t="n">
-        <v>810</v>
-      </c>
-      <c r="D88" t="n">
-        <v>695</v>
-      </c>
-      <c r="E88" t="n">
-        <v>775.9000244140625</v>
-      </c>
       <c r="F88" t="n">
-        <v>773.60986328125</v>
+        <v>704.5642700195312</v>
       </c>
       <c r="G88" t="n">
-        <v>678883</v>
+        <v>860921</v>
       </c>
       <c r="H88" t="n">
         <v>2021</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5137,31 +5129,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B89" t="n">
-        <v>785</v>
+        <v>706.6500244140625</v>
       </c>
       <c r="C89" t="n">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="D89" t="n">
-        <v>700.0499877929688</v>
+        <v>695</v>
       </c>
       <c r="E89" t="n">
-        <v>726.7999877929688</v>
+        <v>775.9000244140625</v>
       </c>
       <c r="F89" t="n">
-        <v>724.6547241210938</v>
+        <v>773.60986328125</v>
       </c>
       <c r="G89" t="n">
-        <v>706850</v>
+        <v>678883</v>
       </c>
       <c r="H89" t="n">
         <v>2021</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -5190,31 +5182,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B90" t="n">
+        <v>785</v>
+      </c>
+      <c r="C90" t="n">
+        <v>827</v>
+      </c>
+      <c r="D90" t="n">
+        <v>700.0499877929688</v>
+      </c>
+      <c r="E90" t="n">
         <v>726.7999877929688</v>
       </c>
-      <c r="C90" t="n">
-        <v>999.7999877929688</v>
-      </c>
-      <c r="D90" t="n">
-        <v>720.0999755859375</v>
-      </c>
-      <c r="E90" t="n">
-        <v>943.1500244140625</v>
-      </c>
       <c r="F90" t="n">
-        <v>940.3662109375</v>
+        <v>724.6547241210938</v>
       </c>
       <c r="G90" t="n">
-        <v>1718791</v>
+        <v>706850</v>
       </c>
       <c r="H90" t="n">
         <v>2021</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5238,36 +5230,36 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B91" t="n">
+        <v>726.7999877929688</v>
+      </c>
+      <c r="C91" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="D91" t="n">
+        <v>720.0999755859375</v>
+      </c>
+      <c r="E91" t="n">
         <v>943.1500244140625</v>
       </c>
-      <c r="C91" t="n">
-        <v>1070</v>
-      </c>
-      <c r="D91" t="n">
-        <v>894</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1008.549987792969</v>
-      </c>
       <c r="F91" t="n">
-        <v>1005.573120117188</v>
+        <v>940.3662109375</v>
       </c>
       <c r="G91" t="n">
-        <v>735053</v>
+        <v>1718791</v>
       </c>
       <c r="H91" t="n">
         <v>2021</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5291,36 +5283,36 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B92" t="n">
-        <v>1051</v>
+        <v>943.1500244140625</v>
       </c>
       <c r="C92" t="n">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="D92" t="n">
-        <v>820.0499877929688</v>
+        <v>894</v>
       </c>
       <c r="E92" t="n">
-        <v>872.6500244140625</v>
+        <v>1008.549987792969</v>
       </c>
       <c r="F92" t="n">
-        <v>870.0742797851562</v>
+        <v>1005.573120117188</v>
       </c>
       <c r="G92" t="n">
-        <v>324600</v>
+        <v>735053</v>
       </c>
       <c r="H92" t="n">
         <v>2021</v>
       </c>
       <c r="I92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5349,31 +5341,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B93" t="n">
-        <v>888</v>
+        <v>1051</v>
       </c>
       <c r="C93" t="n">
-        <v>1193.25</v>
+        <v>1055</v>
       </c>
       <c r="D93" t="n">
-        <v>831</v>
+        <v>820.0499877929688</v>
       </c>
       <c r="E93" t="n">
-        <v>1152.099975585938</v>
+        <v>872.6500244140625</v>
       </c>
       <c r="F93" t="n">
-        <v>1152.099975585938</v>
+        <v>870.0742797851562</v>
       </c>
       <c r="G93" t="n">
-        <v>471994</v>
+        <v>324600</v>
       </c>
       <c r="H93" t="n">
         <v>2021</v>
       </c>
       <c r="I93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5402,31 +5394,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B94" t="n">
-        <v>1188</v>
+        <v>888</v>
       </c>
       <c r="C94" t="n">
-        <v>1350</v>
+        <v>1193.25</v>
       </c>
       <c r="D94" t="n">
-        <v>1071</v>
+        <v>831</v>
       </c>
       <c r="E94" t="n">
-        <v>1106.400024414062</v>
+        <v>1152.099975585938</v>
       </c>
       <c r="F94" t="n">
-        <v>1106.400024414062</v>
+        <v>1152.099975585938</v>
       </c>
       <c r="G94" t="n">
-        <v>1249963</v>
+        <v>471994</v>
       </c>
       <c r="H94" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5455,31 +5447,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B95" t="n">
-        <v>1122</v>
+        <v>1188</v>
       </c>
       <c r="C95" t="n">
-        <v>1419.5</v>
+        <v>1350</v>
       </c>
       <c r="D95" t="n">
-        <v>1065.150024414062</v>
+        <v>1071</v>
       </c>
       <c r="E95" t="n">
-        <v>1383</v>
+        <v>1106.400024414062</v>
       </c>
       <c r="F95" t="n">
-        <v>1383</v>
+        <v>1106.400024414062</v>
       </c>
       <c r="G95" t="n">
-        <v>5117735</v>
+        <v>1249963</v>
       </c>
       <c r="H95" t="n">
         <v>2022</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B96" t="n">
+        <v>1122</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1419.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1065.150024414062</v>
+      </c>
+      <c r="E96" t="n">
         <v>1383</v>
       </c>
-      <c r="C96" t="n">
-        <v>1477.800048828125</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1360</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1389.099975585938</v>
-      </c>
       <c r="F96" t="n">
-        <v>1389.099975585938</v>
+        <v>1383</v>
       </c>
       <c r="G96" t="n">
-        <v>1300129</v>
+        <v>5117735</v>
       </c>
       <c r="H96" t="n">
         <v>2022</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5561,31 +5553,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B97" t="n">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="C97" t="n">
-        <v>1420</v>
+        <v>1477.800048828125</v>
       </c>
       <c r="D97" t="n">
-        <v>1371.099975585938</v>
+        <v>1360</v>
       </c>
       <c r="E97" t="n">
-        <v>1405.25</v>
+        <v>1389.099975585938</v>
       </c>
       <c r="F97" t="n">
-        <v>1405.25</v>
+        <v>1389.099975585938</v>
       </c>
       <c r="G97" t="n">
-        <v>436911</v>
+        <v>1300129</v>
       </c>
       <c r="H97" t="n">
         <v>2022</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5614,31 +5606,31 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B98" t="n">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="C98" t="n">
-        <v>1449.599975585938</v>
+        <v>1420</v>
       </c>
       <c r="D98" t="n">
-        <v>1331.550048828125</v>
+        <v>1371.099975585938</v>
       </c>
       <c r="E98" t="n">
-        <v>1419.050048828125</v>
+        <v>1405.25</v>
       </c>
       <c r="F98" t="n">
-        <v>1419.050048828125</v>
+        <v>1405.25</v>
       </c>
       <c r="G98" t="n">
-        <v>1389184</v>
+        <v>436911</v>
       </c>
       <c r="H98" t="n">
         <v>2022</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B99" t="n">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="C99" t="n">
-        <v>1422</v>
+        <v>1449.599975585938</v>
       </c>
       <c r="D99" t="n">
-        <v>1065.199951171875</v>
+        <v>1331.550048828125</v>
       </c>
       <c r="E99" t="n">
-        <v>1104.699951171875</v>
+        <v>1419.050048828125</v>
       </c>
       <c r="F99" t="n">
-        <v>1104.699951171875</v>
+        <v>1419.050048828125</v>
       </c>
       <c r="G99" t="n">
-        <v>1011837</v>
+        <v>1389184</v>
       </c>
       <c r="H99" t="n">
         <v>2022</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B100" t="n">
-        <v>1117</v>
+        <v>1422</v>
       </c>
       <c r="C100" t="n">
-        <v>1699</v>
+        <v>1422</v>
       </c>
       <c r="D100" t="n">
-        <v>1090.099975585938</v>
+        <v>1065.199951171875</v>
       </c>
       <c r="E100" t="n">
-        <v>1473.300048828125</v>
+        <v>1104.699951171875</v>
       </c>
       <c r="F100" t="n">
-        <v>1473.300048828125</v>
+        <v>1104.699951171875</v>
       </c>
       <c r="G100" t="n">
-        <v>2056044</v>
+        <v>1011837</v>
       </c>
       <c r="H100" t="n">
         <v>2022</v>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,45 +5751,45 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B101" t="n">
-        <v>1495</v>
+        <v>1117</v>
       </c>
       <c r="C101" t="n">
-        <v>1609</v>
+        <v>1699</v>
       </c>
       <c r="D101" t="n">
-        <v>1449</v>
+        <v>1090.099975585938</v>
       </c>
       <c r="E101" t="n">
-        <v>1525.300048828125</v>
+        <v>1473.300048828125</v>
       </c>
       <c r="F101" t="n">
-        <v>1525.300048828125</v>
+        <v>1473.300048828125</v>
       </c>
       <c r="G101" t="n">
-        <v>198064</v>
+        <v>2056044</v>
       </c>
       <c r="H101" t="n">
         <v>2022</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5821,36 +5813,36 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B102" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1609</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E102" t="n">
         <v>1525.300048828125</v>
       </c>
-      <c r="C102" t="n">
-        <v>1747</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1455</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1687.199951171875</v>
-      </c>
       <c r="F102" t="n">
-        <v>1687.199951171875</v>
+        <v>1525.300048828125</v>
       </c>
       <c r="G102" t="n">
-        <v>1155517</v>
+        <v>198064</v>
       </c>
       <c r="H102" t="n">
         <v>2022</v>
       </c>
       <c r="I102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -5879,31 +5871,31 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B103" t="n">
-        <v>1699</v>
+        <v>1525.300048828125</v>
       </c>
       <c r="C103" t="n">
-        <v>1903.349975585938</v>
+        <v>1747</v>
       </c>
       <c r="D103" t="n">
-        <v>1611.300048828125</v>
+        <v>1455</v>
       </c>
       <c r="E103" t="n">
-        <v>1654.599975585938</v>
+        <v>1687.199951171875</v>
       </c>
       <c r="F103" t="n">
-        <v>1654.599975585938</v>
+        <v>1687.199951171875</v>
       </c>
       <c r="G103" t="n">
-        <v>346118</v>
+        <v>1155517</v>
       </c>
       <c r="H103" t="n">
         <v>2022</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,45 +5910,45 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B104" t="n">
-        <v>1699.949951171875</v>
+        <v>1699</v>
       </c>
       <c r="C104" t="n">
-        <v>1699.949951171875</v>
+        <v>1903.349975585938</v>
       </c>
       <c r="D104" t="n">
-        <v>1500</v>
+        <v>1611.300048828125</v>
       </c>
       <c r="E104" t="n">
-        <v>1606.099975585938</v>
+        <v>1654.599975585938</v>
       </c>
       <c r="F104" t="n">
-        <v>1606.099975585938</v>
+        <v>1654.599975585938</v>
       </c>
       <c r="G104" t="n">
-        <v>167137</v>
+        <v>346118</v>
       </c>
       <c r="H104" t="n">
         <v>2022</v>
       </c>
       <c r="I104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,45 +5963,45 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B105" t="n">
-        <v>1619.900024414062</v>
+        <v>1699.949951171875</v>
       </c>
       <c r="C105" t="n">
-        <v>1680.5</v>
+        <v>1699.949951171875</v>
       </c>
       <c r="D105" t="n">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="E105" t="n">
-        <v>1566.849975585938</v>
+        <v>1606.099975585938</v>
       </c>
       <c r="F105" t="n">
-        <v>1566.849975585938</v>
+        <v>1606.099975585938</v>
       </c>
       <c r="G105" t="n">
-        <v>204917</v>
+        <v>167137</v>
       </c>
       <c r="H105" t="n">
         <v>2022</v>
       </c>
       <c r="I105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -6038,31 +6030,31 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B106" t="n">
-        <v>1555</v>
+        <v>1619.900024414062</v>
       </c>
       <c r="C106" t="n">
-        <v>1592</v>
+        <v>1680.5</v>
       </c>
       <c r="D106" t="n">
-        <v>1399</v>
+        <v>1496</v>
       </c>
       <c r="E106" t="n">
-        <v>1426.699951171875</v>
+        <v>1566.849975585938</v>
       </c>
       <c r="F106" t="n">
-        <v>1426.699951171875</v>
+        <v>1566.849975585938</v>
       </c>
       <c r="G106" t="n">
-        <v>80543</v>
+        <v>204917</v>
       </c>
       <c r="H106" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6077,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -6091,31 +6083,31 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B107" t="n">
-        <v>1412</v>
+        <v>1555</v>
       </c>
       <c r="C107" t="n">
-        <v>1480.300048828125</v>
+        <v>1592</v>
       </c>
       <c r="D107" t="n">
-        <v>1286.949951171875</v>
+        <v>1399</v>
       </c>
       <c r="E107" t="n">
-        <v>1296.5</v>
+        <v>1426.699951171875</v>
       </c>
       <c r="F107" t="n">
-        <v>1296.5</v>
+        <v>1426.699951171875</v>
       </c>
       <c r="G107" t="n">
-        <v>79869</v>
+        <v>80543</v>
       </c>
       <c r="H107" t="n">
         <v>2023</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6130,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -6139,36 +6131,36 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B108" t="n">
-        <v>1300</v>
+        <v>1412</v>
       </c>
       <c r="C108" t="n">
-        <v>1353.800048828125</v>
+        <v>1480.300048828125</v>
       </c>
       <c r="D108" t="n">
-        <v>1172.699951171875</v>
+        <v>1286.949951171875</v>
       </c>
       <c r="E108" t="n">
-        <v>1211.349975585938</v>
+        <v>1296.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1211.349975585938</v>
+        <v>1296.5</v>
       </c>
       <c r="G108" t="n">
-        <v>136419</v>
+        <v>79869</v>
       </c>
       <c r="H108" t="n">
         <v>2023</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6183,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6192,36 +6184,36 @@
         <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B109" t="n">
-        <v>1214.400024414062</v>
+        <v>1300</v>
       </c>
       <c r="C109" t="n">
-        <v>1252.099975585938</v>
+        <v>1353.800048828125</v>
       </c>
       <c r="D109" t="n">
-        <v>1089.949951171875</v>
+        <v>1172.699951171875</v>
       </c>
       <c r="E109" t="n">
-        <v>1097.449951171875</v>
+        <v>1211.349975585938</v>
       </c>
       <c r="F109" t="n">
-        <v>1097.449951171875</v>
+        <v>1211.349975585938</v>
       </c>
       <c r="G109" t="n">
-        <v>172905</v>
+        <v>136419</v>
       </c>
       <c r="H109" t="n">
         <v>2023</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6236,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6250,31 +6242,31 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B110" t="n">
+        <v>1214.400024414062</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1252.099975585938</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1089.949951171875</v>
+      </c>
+      <c r="E110" t="n">
         <v>1097.449951171875</v>
       </c>
-      <c r="C110" t="n">
-        <v>1190.099975585938</v>
-      </c>
-      <c r="D110" t="n">
-        <v>977.5499877929688</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1117.599975585938</v>
-      </c>
       <c r="F110" t="n">
-        <v>1117.599975585938</v>
+        <v>1097.449951171875</v>
       </c>
       <c r="G110" t="n">
-        <v>291640</v>
+        <v>172905</v>
       </c>
       <c r="H110" t="n">
         <v>2023</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6289,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6303,31 +6295,31 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B111" t="n">
-        <v>1106.400024414062</v>
+        <v>1097.449951171875</v>
       </c>
       <c r="C111" t="n">
-        <v>1216.949951171875</v>
+        <v>1190.099975585938</v>
       </c>
       <c r="D111" t="n">
-        <v>1106.400024414062</v>
+        <v>977.5499877929688</v>
       </c>
       <c r="E111" t="n">
-        <v>1135.5</v>
+        <v>1117.599975585938</v>
       </c>
       <c r="F111" t="n">
-        <v>1135.5</v>
+        <v>1117.599975585938</v>
       </c>
       <c r="G111" t="n">
-        <v>196637</v>
+        <v>291640</v>
       </c>
       <c r="H111" t="n">
         <v>2023</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6342,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6356,31 +6348,31 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B112" t="n">
-        <v>1151.949951171875</v>
+        <v>1106.400024414062</v>
       </c>
       <c r="C112" t="n">
-        <v>1247.099975585938</v>
+        <v>1216.949951171875</v>
       </c>
       <c r="D112" t="n">
-        <v>1127</v>
+        <v>1106.400024414062</v>
       </c>
       <c r="E112" t="n">
-        <v>1176.699951171875</v>
+        <v>1135.5</v>
       </c>
       <c r="F112" t="n">
-        <v>1176.699951171875</v>
+        <v>1135.5</v>
       </c>
       <c r="G112" t="n">
-        <v>240595</v>
+        <v>196637</v>
       </c>
       <c r="H112" t="n">
         <v>2023</v>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6395,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -6409,31 +6401,31 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B113" t="n">
-        <v>1204.699951171875</v>
+        <v>1151.949951171875</v>
       </c>
       <c r="C113" t="n">
-        <v>1297.949951171875</v>
+        <v>1247.099975585938</v>
       </c>
       <c r="D113" t="n">
-        <v>1150.349975585938</v>
+        <v>1127</v>
       </c>
       <c r="E113" t="n">
-        <v>1212.300048828125</v>
+        <v>1176.699951171875</v>
       </c>
       <c r="F113" t="n">
-        <v>1212.300048828125</v>
+        <v>1176.699951171875</v>
       </c>
       <c r="G113" t="n">
-        <v>307446</v>
+        <v>240595</v>
       </c>
       <c r="H113" t="n">
         <v>2023</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6448,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -6462,31 +6454,31 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B114" t="n">
-        <v>1230.5</v>
+        <v>1204.699951171875</v>
       </c>
       <c r="C114" t="n">
-        <v>1308.400024414062</v>
+        <v>1297.949951171875</v>
       </c>
       <c r="D114" t="n">
-        <v>1186.949951171875</v>
+        <v>1150.349975585938</v>
       </c>
       <c r="E114" t="n">
-        <v>1266.300048828125</v>
+        <v>1212.300048828125</v>
       </c>
       <c r="F114" t="n">
-        <v>1266.300048828125</v>
+        <v>1212.300048828125</v>
       </c>
       <c r="G114" t="n">
-        <v>247210</v>
+        <v>307446</v>
       </c>
       <c r="H114" t="n">
         <v>2023</v>
       </c>
       <c r="I114" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -6501,45 +6493,45 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B115" t="n">
+        <v>1230.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1308.400024414062</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1186.949951171875</v>
+      </c>
+      <c r="E115" t="n">
         <v>1266.300048828125</v>
       </c>
-      <c r="C115" t="n">
-        <v>1287</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1077.150024414062</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1085.400024414062</v>
-      </c>
       <c r="F115" t="n">
-        <v>1085.400024414062</v>
+        <v>1266.300048828125</v>
       </c>
       <c r="G115" t="n">
-        <v>161892</v>
+        <v>247210</v>
       </c>
       <c r="H115" t="n">
         <v>2023</v>
       </c>
       <c r="I115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -6554,45 +6546,45 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B116" t="n">
-        <v>1085.300048828125</v>
+        <v>1266.300048828125</v>
       </c>
       <c r="C116" t="n">
-        <v>1114.949951171875</v>
+        <v>1287</v>
       </c>
       <c r="D116" t="n">
-        <v>1010</v>
+        <v>1077.150024414062</v>
       </c>
       <c r="E116" t="n">
-        <v>1020.5</v>
+        <v>1085.400024414062</v>
       </c>
       <c r="F116" t="n">
-        <v>1020.5</v>
+        <v>1085.400024414062</v>
       </c>
       <c r="G116" t="n">
-        <v>109180</v>
+        <v>161892</v>
       </c>
       <c r="H116" t="n">
         <v>2023</v>
       </c>
       <c r="I116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6607,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -6621,31 +6613,31 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B117" t="n">
-        <v>1030.699951171875</v>
+        <v>1085.300048828125</v>
       </c>
       <c r="C117" t="n">
-        <v>1059</v>
+        <v>1114.949951171875</v>
       </c>
       <c r="D117" t="n">
-        <v>1004.5</v>
+        <v>1010</v>
       </c>
       <c r="E117" t="n">
-        <v>1039.949951171875</v>
+        <v>1020.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1039.949951171875</v>
+        <v>1020.5</v>
       </c>
       <c r="G117" t="n">
-        <v>111886</v>
+        <v>109180</v>
       </c>
       <c r="H117" t="n">
         <v>2023</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6660,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -6674,31 +6666,31 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B118" t="n">
+        <v>1030.699951171875</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="E118" t="n">
         <v>1039.949951171875</v>
       </c>
-      <c r="C118" t="n">
-        <v>1134.199951171875</v>
-      </c>
-      <c r="D118" t="n">
-        <v>979.9500122070312</v>
-      </c>
-      <c r="E118" t="n">
-        <v>983.3499755859375</v>
-      </c>
       <c r="F118" t="n">
-        <v>983.3499755859375</v>
+        <v>1039.949951171875</v>
       </c>
       <c r="G118" t="n">
-        <v>233054</v>
+        <v>111886</v>
       </c>
       <c r="H118" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -6713,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -6722,89 +6714,89 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B119" t="n">
-        <v>995</v>
+        <v>1039.949951171875</v>
       </c>
       <c r="C119" t="n">
-        <v>1000</v>
+        <v>1134.199951171875</v>
       </c>
       <c r="D119" t="n">
-        <v>864.9500122070312</v>
+        <v>979.9500122070312</v>
       </c>
       <c r="E119" t="n">
-        <v>898.6500244140625</v>
+        <v>983.3499755859375</v>
       </c>
       <c r="F119" t="n">
-        <v>898.6500244140625</v>
+        <v>983.3499755859375</v>
       </c>
       <c r="G119" t="n">
-        <v>255386</v>
+        <v>233054</v>
       </c>
       <c r="H119" t="n">
         <v>2024</v>
       </c>
       <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
         <v>2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B120" t="n">
+        <v>995</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>864.9500122070312</v>
+      </c>
+      <c r="E120" t="n">
         <v>898.6500244140625</v>
       </c>
-      <c r="C120" t="n">
-        <v>915</v>
-      </c>
-      <c r="D120" t="n">
-        <v>756</v>
-      </c>
-      <c r="E120" t="n">
-        <v>762.9500122070312</v>
-      </c>
       <c r="F120" t="n">
-        <v>762.9500122070312</v>
+        <v>898.6500244140625</v>
       </c>
       <c r="G120" t="n">
-        <v>174764</v>
+        <v>255386</v>
       </c>
       <c r="H120" t="n">
         <v>2024</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6819,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -6833,31 +6825,31 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B121" t="n">
-        <v>766</v>
+        <v>898.6500244140625</v>
       </c>
       <c r="C121" t="n">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D121" t="n">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E121" t="n">
-        <v>838.2000122070312</v>
+        <v>762.9500122070312</v>
       </c>
       <c r="F121" t="n">
-        <v>838.2000122070312</v>
+        <v>762.9500122070312</v>
       </c>
       <c r="G121" t="n">
-        <v>417653</v>
+        <v>174764</v>
       </c>
       <c r="H121" t="n">
         <v>2024</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -6872,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -6886,31 +6878,31 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B122" t="n">
+        <v>766</v>
+      </c>
+      <c r="C122" t="n">
+        <v>925</v>
+      </c>
+      <c r="D122" t="n">
+        <v>766</v>
+      </c>
+      <c r="E122" t="n">
         <v>838.2000122070312</v>
       </c>
-      <c r="C122" t="n">
-        <v>855</v>
-      </c>
-      <c r="D122" t="n">
-        <v>737.0499877929688</v>
-      </c>
-      <c r="E122" t="n">
-        <v>758.2999877929688</v>
-      </c>
       <c r="F122" t="n">
-        <v>758.2999877929688</v>
+        <v>838.2000122070312</v>
       </c>
       <c r="G122" t="n">
-        <v>302705</v>
+        <v>417653</v>
       </c>
       <c r="H122" t="n">
         <v>2024</v>
       </c>
       <c r="I122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -6925,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -6939,56 +6931,514 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B123" t="n">
-        <v>763.7000122070312</v>
+        <v>838.2000122070312</v>
       </c>
       <c r="C123" t="n">
-        <v>768.0499877929688</v>
+        <v>855</v>
       </c>
       <c r="D123" t="n">
-        <v>674.9000244140625</v>
+        <v>737.0499877929688</v>
       </c>
       <c r="E123" t="n">
-        <v>748.2000122070312</v>
+        <v>758.2999877929688</v>
       </c>
       <c r="F123" t="n">
-        <v>748.2000122070312</v>
+        <v>758.2999877929688</v>
       </c>
       <c r="G123" t="n">
-        <v>61363</v>
+        <v>302705</v>
       </c>
       <c r="H123" t="n">
         <v>2024</v>
       </c>
       <c r="I123" t="n">
+        <v>5</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>18</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B124" t="n">
+        <v>763.7000122070312</v>
+      </c>
+      <c r="C124" t="n">
+        <v>768.0499877929688</v>
+      </c>
+      <c r="D124" t="n">
+        <v>674.9000244140625</v>
+      </c>
+      <c r="E124" t="n">
+        <v>748.2000122070312</v>
+      </c>
+      <c r="F124" t="n">
+        <v>748.2000122070312</v>
+      </c>
+      <c r="G124" t="n">
+        <v>61363</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="n">
         <v>6</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" t="n">
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
         <v>22</v>
       </c>
-      <c r="O123" t="n">
-        <v>0</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>0</v>
-      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B125" t="n">
+        <v>869.3499755859375</v>
+      </c>
+      <c r="C125" t="n">
+        <v>910</v>
+      </c>
+      <c r="D125" t="n">
+        <v>816.9000244140625</v>
+      </c>
+      <c r="E125" t="n">
+        <v>876.4000244140625</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>411543</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>27</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B126" t="n">
+        <v>876.4500122070312</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1036.949951171875</v>
+      </c>
+      <c r="D126" t="n">
+        <v>815.0499877929688</v>
+      </c>
+      <c r="E126" t="n">
+        <v>964.5499877929688</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>608877</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="n">
+        <v>8</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B127" t="n">
+        <v>979</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D127" t="n">
+        <v>925.5999755859375</v>
+      </c>
+      <c r="E127" t="n">
+        <v>981.4500122070312</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>2090939</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>35</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B128" t="n">
+        <v>981.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D128" t="n">
+        <v>790</v>
+      </c>
+      <c r="E128" t="n">
+        <v>852.2000122070312</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>601436</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>40</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B129" t="n">
+        <v>852.7999877929688</v>
+      </c>
+      <c r="C129" t="n">
+        <v>882.1500244140625</v>
+      </c>
+      <c r="D129" t="n">
+        <v>772.6500244140625</v>
+      </c>
+      <c r="E129" t="n">
+        <v>817.4000244140625</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>285105</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>44</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B130" t="n">
+        <v>815.5999755859375</v>
+      </c>
+      <c r="C130" t="n">
+        <v>833.4000244140625</v>
+      </c>
+      <c r="D130" t="n">
+        <v>781.2000122070312</v>
+      </c>
+      <c r="E130" t="n">
+        <v>801.2000122070312</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>224625</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I130" t="n">
+        <v>12</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>48</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B131" t="n">
+        <v>801.25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>814.9500122070312</v>
+      </c>
+      <c r="D131" t="n">
+        <v>611.25</v>
+      </c>
+      <c r="E131" t="n">
+        <v>620.2000122070312</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>151055</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B132" t="n">
+        <v>629.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>729.25</v>
+      </c>
+      <c r="D132" t="n">
+        <v>580.8499755859375</v>
+      </c>
+      <c r="E132" t="n">
+        <v>583.2000122070312</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>394768</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B133" t="n">
+        <v>583.25</v>
+      </c>
+      <c r="C133" t="n">
+        <v>630.9500122070312</v>
+      </c>
+      <c r="D133" t="n">
+        <v>550.7000122070312</v>
+      </c>
+      <c r="E133" t="n">
+        <v>598.4500122070312</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>207617</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>9</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
